--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.2-40-1.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.2-40-1.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
-    <t>A,C</t>
+    <t>E</t>
   </si>
   <si>
-    <t>E</t>
+    <t>C,D</t>
   </si>
   <si>
     <t>A,B</t>
   </si>
   <si>
-    <t>C,D</t>
+    <t>A,C</t>
   </si>
 </sst>
 </file>
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
       <c r="E2">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F2">
-        <v>1741</v>
+        <v>1336</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,22 +467,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="F3">
-        <v>1755</v>
+        <v>285</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -493,25 +493,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>267</v>
+        <v>1608</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -519,25 +519,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
       <c r="E5">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="F5">
-        <v>1175</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -545,51 +545,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="F6">
-        <v>1618</v>
+        <v>1832</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="F7">
-        <v>297</v>
+        <v>1778</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -597,103 +597,103 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="F8">
-        <v>1448</v>
+        <v>1275</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="F9">
-        <v>1115</v>
+        <v>432</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>111</v>
+        <v>456</v>
       </c>
       <c r="F10">
-        <v>1891</v>
+        <v>1723</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>135</v>
+        <v>461</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>135</v>
+        <v>461</v>
       </c>
       <c r="F11">
-        <v>1137</v>
+        <v>1754</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -701,80 +701,80 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>143</v>
+        <v>510</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>143</v>
+        <v>510</v>
       </c>
       <c r="F12">
-        <v>1308</v>
+        <v>645</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>211</v>
+        <v>569</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>211</v>
+        <v>569</v>
       </c>
       <c r="F13">
-        <v>1368</v>
+        <v>718</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>299</v>
+        <v>623</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>299</v>
+        <v>623</v>
       </c>
       <c r="F14">
-        <v>1798</v>
+        <v>2010</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,22 +782,22 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>313</v>
+        <v>658</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>34</v>
       </c>
       <c r="E15">
-        <v>313</v>
+        <v>658</v>
       </c>
       <c r="F15">
-        <v>1914</v>
+        <v>804</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -805,51 +805,51 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>326</v>
+        <v>681</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>681</v>
       </c>
       <c r="F16">
-        <v>1708</v>
+        <v>2414</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>450</v>
+        <v>689</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>450</v>
+        <v>689</v>
       </c>
       <c r="F17">
-        <v>1894</v>
+        <v>2394</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -857,28 +857,28 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>731</v>
+      </c>
+      <c r="C18">
         <v>30</v>
       </c>
-      <c r="B18">
-        <v>472</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
       <c r="D18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>472</v>
+        <v>731</v>
       </c>
       <c r="F18">
-        <v>2031</v>
+        <v>2331</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,48 +886,48 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>476</v>
+        <v>748</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>476</v>
+        <v>748</v>
       </c>
       <c r="F19">
-        <v>2160</v>
+        <v>891</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>639</v>
+        <v>757</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>639</v>
+        <v>757</v>
       </c>
       <c r="F20">
-        <v>2385</v>
+        <v>1808</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -935,28 +935,28 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>651</v>
+        <v>778</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>651</v>
+        <v>778</v>
       </c>
       <c r="F21">
-        <v>2104</v>
+        <v>2370</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,74 +964,74 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>675</v>
+        <v>787</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>675</v>
+        <v>787</v>
       </c>
       <c r="F22">
-        <v>914</v>
+        <v>2576</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>698</v>
+        <v>806</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>698</v>
+        <v>806</v>
       </c>
       <c r="F23">
-        <v>947</v>
+        <v>2589</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="F24">
-        <v>2026</v>
+        <v>2228</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1039,48 +1039,48 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>864</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
         <v>35</v>
       </c>
-      <c r="B25">
-        <v>774</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>21</v>
-      </c>
       <c r="E25">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="F25">
-        <v>932</v>
+        <v>1954</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B26">
-        <v>972</v>
+        <v>870</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>972</v>
+        <v>870</v>
       </c>
       <c r="F26">
-        <v>2584</v>
+        <v>2711</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -1091,155 +1091,155 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>1135</v>
+        <v>1024</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>1135</v>
+        <v>1024</v>
       </c>
       <c r="F27">
-        <v>2368</v>
+        <v>2363</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>1162</v>
+        <v>1093</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>1162</v>
+        <v>1093</v>
       </c>
       <c r="F28">
-        <v>1439</v>
+        <v>2114</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1203</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>1203</v>
       </c>
       <c r="F29">
-        <v>2401</v>
+        <v>2706</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>1315</v>
+        <v>1250</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1315</v>
+        <v>1250</v>
       </c>
       <c r="F30">
-        <v>1503</v>
+        <v>2786</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>1349</v>
+        <v>1277</v>
       </c>
       <c r="C31">
         <v>21</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>1349</v>
+        <v>1277</v>
       </c>
       <c r="F31">
-        <v>2548</v>
+        <v>2567</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>1459</v>
+        <v>1299</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>1459</v>
+        <v>1299</v>
       </c>
       <c r="F32">
-        <v>1765</v>
+        <v>2288</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1247,155 +1247,155 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>1507</v>
+        <v>1409</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>1507</v>
+        <v>1409</v>
       </c>
       <c r="F33">
-        <v>3268</v>
+        <v>2838</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>1513</v>
+        <v>1421</v>
       </c>
       <c r="C34">
         <v>36</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>1513</v>
+        <v>1421</v>
       </c>
       <c r="F34">
-        <v>2769</v>
+        <v>2935</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>1606</v>
+        <v>1463</v>
       </c>
       <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>1463</v>
+      </c>
+      <c r="F35">
+        <v>2407</v>
+      </c>
+      <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>1606</v>
-      </c>
-      <c r="F35">
-        <v>3001</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>1613</v>
+        <v>1525</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E36">
-        <v>1613</v>
+        <v>1525</v>
       </c>
       <c r="F36">
-        <v>2739</v>
+        <v>2674</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>1648</v>
+        <v>1534</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>1648</v>
+        <v>1534</v>
       </c>
       <c r="F37">
-        <v>3057</v>
+        <v>3256</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>1667</v>
+        <v>1538</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>1667</v>
+        <v>1538</v>
       </c>
       <c r="F38">
-        <v>3471</v>
+        <v>3207</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1403,48 +1403,48 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>1699</v>
+        <v>1551</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>1699</v>
+        <v>1551</v>
       </c>
       <c r="F39">
-        <v>2794</v>
+        <v>2636</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>1730</v>
+        <v>1623</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>1730</v>
+        <v>1623</v>
       </c>
       <c r="F40">
-        <v>1985</v>
+        <v>2569</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1455,28 +1455,28 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>1775</v>
+        <v>1727</v>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>1775</v>
+        <v>1727</v>
       </c>
       <c r="F41">
-        <v>2043</v>
+        <v>1820</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
